--- a/合作企业信息汇总表.xlsx
+++ b/合作企业信息汇总表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
@@ -1515,8 +1515,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1785,6 +1785,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1795,42 +1831,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1894,7 +1894,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1929,7 +1929,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2144,7 +2144,7 @@
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -2153,11 +2153,11 @@
     <col min="5" max="5" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="29" t="s">
         <v>246</v>
       </c>
@@ -2168,55 +2168,55 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="42" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-    </row>
-    <row r="4" spans="1:5" ht="27">
-      <c r="A4" s="44" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-    </row>
-    <row r="5" spans="1:5" ht="27">
-      <c r="A5" s="44" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2239,7 +2239,7 @@
       <selection pane="topRight" activeCell="A36" sqref="A36:U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="5" customWidth="1"/>
@@ -2263,39 +2263,39 @@
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="20" customFormat="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="32" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="34" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-    </row>
-    <row r="2" spans="1:21" s="20" customFormat="1">
-      <c r="A2" s="35"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+    </row>
+    <row r="2" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="47"/>
       <c r="B2" s="6" t="s">
         <v>238</v>
       </c>
@@ -2357,14 +2357,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="36.75" customHeight="1">
+    <row r="3" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="37" t="s">
         <v>299</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:21" ht="165">
+    <row r="4" spans="1:21" ht="165" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -2455,14 +2455,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="132">
+    <row r="5" spans="1:21" ht="132" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="4" t="s">
         <v>239</v>
       </c>
@@ -2471,28 +2471,28 @@
       <c r="G5" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="32" t="s">
         <v>148</v>
       </c>
       <c r="P5" s="25"/>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="U5" s="23"/>
     </row>
-    <row r="6" spans="1:21" ht="148.5">
+    <row r="6" spans="1:21" ht="148.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="U6" s="10"/>
     </row>
-    <row r="7" spans="1:21" ht="82.5">
+    <row r="7" spans="1:21" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2608,7 +2608,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:21" ht="99">
+    <row r="10" spans="1:21" ht="99" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:21" ht="132">
+    <row r="11" spans="1:21" ht="132" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:21" ht="181.5">
+    <row r="12" spans="1:21" ht="181.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:21" ht="33">
+    <row r="15" spans="1:21" ht="33" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -2936,7 +2936,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:21" ht="33">
+    <row r="16" spans="1:21" ht="33" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
@@ -2973,7 +2973,7 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -3008,7 +3008,7 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="165">
+    <row r="19" spans="1:21" ht="165" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>68</v>
       </c>
@@ -3087,14 +3087,14 @@
       <c r="S19" s="10">
         <v>13901307445</v>
       </c>
-      <c r="T19" s="39" t="s">
+      <c r="T19" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="U19" s="40" t="s">
+      <c r="U19" s="36" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>72</v>
       </c>
@@ -3130,14 +3130,14 @@
       <c r="S20" s="10">
         <v>18910188170</v>
       </c>
-      <c r="T20" s="38" t="s">
+      <c r="T20" s="34" t="s">
         <v>107</v>
       </c>
       <c r="U20" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="33">
+    <row r="21" spans="1:21" ht="33" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="115.5">
+    <row r="22" spans="1:21" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="s">
         <v>265</v>
       </c>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="U22" s="24"/>
     </row>
-    <row r="23" spans="1:21" ht="115.5">
+    <row r="23" spans="1:21" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="132">
+    <row r="24" spans="1:21" ht="132" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>10</v>
       </c>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="115.5">
+    <row r="25" spans="1:21" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="82.5">
+    <row r="26" spans="1:21" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -3463,7 +3463,7 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="99">
+    <row r="27" spans="1:21" ht="99" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="132">
+    <row r="28" spans="1:21" ht="132" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="82.5">
+    <row r="29" spans="1:21" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -3655,7 +3655,7 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" s="18" customFormat="1" ht="132">
+    <row r="31" spans="1:21" s="18" customFormat="1" ht="132" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>279</v>
       </c>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="82.5">
+    <row r="32" spans="1:21" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -3741,7 +3741,7 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="33">
+    <row r="34" spans="1:21" ht="33" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="99">
+    <row r="35" spans="1:21" ht="99" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -3858,7 +3858,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" ht="49.5">
+    <row r="36" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
         <v>316</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="S36" s="4">
         <v>18520066370</v>
       </c>
-      <c r="T36" s="47" t="s">
+      <c r="T36" s="39" t="s">
         <v>320</v>
       </c>
       <c r="U36" s="4"/>

--- a/合作企业信息汇总表.xlsx
+++ b/合作企业信息汇总表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
@@ -10,12 +10,15 @@
     <sheet name="字段解释" sheetId="4" r:id="rId1"/>
     <sheet name="合作拓展进度" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">合作拓展进度!$B$1:$G$43</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="356">
   <si>
     <t>芃柏数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,11 +80,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>云相科技
-（新浪微博）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>东网科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>logo与网址已提供</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">解决方案中心总监 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,10 +294,6 @@
   <si>
     <t>极光推送</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>市场销售部 客户经理</t>
@@ -1174,14 +1164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求和产品已提供</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合作情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>协议签订</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1194,19 +1176,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>联系信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>未接触</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>未接触</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业分析</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1395,15 +1369,7 @@
     <t>2级</t>
   </si>
   <si>
-    <t>2级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1477,22 +1443,180 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已确定互联
+已提供LOGO和网址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确定互联</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华道征信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有明确的征信数据开放需求，正在评估合作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张代印</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dy.zhang@sinowaycredit.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰一指尚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网智天元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海云数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥维云网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费埃哲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有意向合作，提供征信数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉长江大数据交易所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨数据交易中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>数据整理中
 已提供数据
+已提供需求
 已上架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已确定互联
-已提供LOGO和网址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已确定互联</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>华道征信</t>
+    <t>已提供需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李晖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛洪尧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云相科技
+（新浪微博）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张涵诚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云创</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作意愿不强，已暂停交流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已发邮件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有意向加入联盟和专委会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘立宏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场经理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>liulihong@cstor.cn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1500,23 +1624,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>有明确的征信数据开放需求，正在评估合作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张代印</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dy.zhang@sinowaycredit.com</t>
+    <t>3级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据服务商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据交易</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据交易</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>征信、咨询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>征信</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1606,7 +1750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1624,32 +1768,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1698,7 +1816,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1727,17 +1845,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1750,33 +1862,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1785,52 +1878,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1894,7 +1979,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1929,7 +2014,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2141,10 +2226,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="27.375" customWidth="1"/>
@@ -2153,70 +2238,70 @@
     <col min="5" max="5" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="38" t="s">
+    <row r="1" spans="1:5" ht="16.5">
+      <c r="A1" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27">
+      <c r="A3" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" ht="27">
+      <c r="A4" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" ht="27">
+      <c r="A5" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-    </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-    </row>
-    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="B5" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2232,16 +2317,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A36" sqref="A36:U36"/>
+      <selection pane="topRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="23" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="5" customWidth="1"/>
     <col min="3" max="4" width="16.25" style="5" customWidth="1"/>
     <col min="5" max="6" width="16.625" style="5" customWidth="1"/>
@@ -2263,1664 +2348,1973 @@
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:21" s="17" customFormat="1">
+      <c r="A1" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="115.5">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" s="4">
+        <v>18001037773</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-    </row>
-    <row r="2" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="6" t="s">
+      <c r="U2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="132">
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="G3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="4">
+        <v>13811613566</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" ht="115.5">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" ht="82.5">
+      <c r="A5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" ht="82.5">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21" ht="165" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S4" s="4">
-        <v>13693009885</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="132" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="O5" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="S5" s="4">
-        <v>15657179216</v>
-      </c>
-      <c r="T5" s="12" t="s">
+      <c r="D6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="U5" s="23"/>
-    </row>
-    <row r="6" spans="1:21" ht="148.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>180</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="I6" s="10"/>
       <c r="J6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>182</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="U6" s="10"/>
-    </row>
-    <row r="7" spans="1:21" ht="82.5" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S6" s="4">
+        <v>13911611255</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>305</v>
+        <v>65</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>286</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="10" t="s">
-        <v>78</v>
+      <c r="D7" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="P7" s="11"/>
+      <c r="F7" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="S7" s="4">
-        <v>13982089680</v>
+        <v>18600560393</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4" t="s">
-        <v>32</v>
+    <row r="8" spans="1:21" ht="132">
+      <c r="A8" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="S8" s="4">
+        <v>13880286061</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="99">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" s="4">
+        <v>18640018555</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" ht="132">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" ht="33">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="4">
+        <v>18516280081</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" ht="99" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" ht="132" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="S11" s="4">
-        <v>15210102994</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" ht="181.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="S12" s="4">
-        <v>13654022738</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S14" s="4">
-        <v>13426241154</v>
-      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:21" ht="33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="49.5">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>262</v>
+        <v>289</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>290</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
       <c r="Q15" s="4" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="S15" s="4">
-        <v>13810027168</v>
-      </c>
-      <c r="T15" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:21" ht="33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="132">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>263</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
+      <c r="G16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="P16" s="10"/>
       <c r="Q16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>97</v>
+        <v>78</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="S16" s="4">
-        <v>13811808507</v>
-      </c>
-      <c r="T16" s="4"/>
+        <v>15657179216</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C17" s="9"/>
+        <v>288</v>
+      </c>
+      <c r="C17" s="19"/>
       <c r="D17" s="4" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
       <c r="Q17" s="4" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="S17" s="4">
-        <v>13811776313</v>
-      </c>
-      <c r="T17" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="99">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C18" s="9"/>
+        <v>288</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="G18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="T18" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="165" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
-        <v>68</v>
+    <row r="19" spans="1:21" ht="132">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="10"/>
+        <v>321</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="S19" s="4">
+        <v>15210102994</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="1:21" ht="181.5">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q19" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="S19" s="10">
-        <v>13901307445</v>
-      </c>
-      <c r="T19" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="U19" s="36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="R20" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="S20" s="10">
-        <v>18910188170</v>
-      </c>
-      <c r="T20" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="33" x14ac:dyDescent="0.35">
+      <c r="P20" s="10"/>
+      <c r="Q20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="S20" s="4">
+        <v>13654022738</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="1:21" ht="165">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>264</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="G21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N21" s="10"/>
       <c r="O21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P21" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="Q21" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="R21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" s="4">
+        <v>13901307445</v>
+      </c>
+      <c r="T21" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S21" s="4">
-        <v>13911821375</v>
-      </c>
-      <c r="T21" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="115.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="30" t="s">
-        <v>265</v>
-      </c>
       <c r="B22" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>266</v>
+        <v>289</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S22" s="4">
+        <v>18910188170</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="33">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="S23" s="4">
+        <v>13911821375</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="115.5">
+      <c r="A24" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="P24" s="22"/>
+      <c r="Q24" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="R24" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="S24" s="3">
+        <v>18611885877</v>
+      </c>
+      <c r="T24" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="S22" s="3">
-        <v>18611885877</v>
-      </c>
-      <c r="T22" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="U22" s="24"/>
-    </row>
-    <row r="23" spans="1:21" ht="115.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N23" s="3" t="s">
+      <c r="U24" s="4"/>
+    </row>
+    <row r="25" spans="1:21" ht="99">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="S23" s="4">
-        <v>18001037773</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="132" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S24" s="4">
-        <v>13811613566</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="U24" s="4"/>
-    </row>
-    <row r="25" spans="1:21" ht="115.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="82.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>257</v>
+    <row r="26" spans="1:21" ht="49.5">
+      <c r="A26" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
+      <c r="S26" s="4">
+        <v>18520066370</v>
+      </c>
+      <c r="T26" s="24" t="s">
+        <v>310</v>
+      </c>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="99" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>259</v>
-      </c>
+    <row r="27" spans="1:21">
+      <c r="A27" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="S27" s="4">
-        <v>18640018555</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="G27" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="132" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>260</v>
-      </c>
+    <row r="28" spans="1:21">
+      <c r="A28" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P28" s="2"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="82.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>261</v>
-      </c>
+    <row r="29" spans="1:21">
+      <c r="A29" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="S29" s="4">
-        <v>13911611255</v>
-      </c>
-      <c r="T29" s="17" t="s">
-        <v>99</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="C30" s="26"/>
+    <row r="30" spans="1:21" s="16" customFormat="1">
+      <c r="A30" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="S30" s="4">
-        <v>18600560393</v>
-      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" s="18" customFormat="1" ht="132" x14ac:dyDescent="0.35">
-      <c r="A31" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="S31" s="4">
-        <v>13880286061</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>290</v>
-      </c>
+    <row r="31" spans="1:21" ht="33">
+      <c r="A31" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="82.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="4"/>
+    <row r="32" spans="1:21" s="32" customFormat="1">
+      <c r="A32" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="S32" s="4">
+        <v>13815414773</v>
+      </c>
+      <c r="T32" s="24" t="s">
+        <v>346</v>
+      </c>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C33" s="9"/>
+    <row r="33" spans="1:21" s="32" customFormat="1" ht="33">
+      <c r="A33" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>343</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
+      <c r="G33" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="165">
       <c r="A34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>253</v>
+        <v>32</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R34" s="3"/>
+        <v>237</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="S34" s="4">
-        <v>18516280081</v>
-      </c>
-      <c r="T34" s="4" t="s">
-        <v>6</v>
+        <v>13693009885</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="U34" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="99" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="148.5">
       <c r="A35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>297</v>
+        <v>13</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>295</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>194</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="K35" s="2"/>
       <c r="L35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U35" s="4"/>
+    </row>
+    <row r="36" spans="1:21" ht="82.5">
+      <c r="A36" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14">
+        <v>13982089680</v>
+      </c>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="R37" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="U37" s="14"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S39" s="4">
+        <v>13426241154</v>
+      </c>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+    </row>
+    <row r="40" spans="1:21" s="32" customFormat="1" ht="82.5" hidden="1">
+      <c r="A40" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-    </row>
-    <row r="36" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4">
-        <v>18520066370</v>
-      </c>
-      <c r="T36" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="U36" s="4"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+    </row>
+    <row r="41" spans="1:21" s="32" customFormat="1" hidden="1">
+      <c r="A41" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+    </row>
+    <row r="42" spans="1:21" ht="33">
+      <c r="A42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S42" s="4">
+        <v>13810027168</v>
+      </c>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+    </row>
+    <row r="43" spans="1:21" ht="33">
+      <c r="A43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="S43" s="4">
+        <v>13811808507</v>
+      </c>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S44" s="4">
+        <v>13811776313</v>
+      </c>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A3:U35">
-    <sortCondition ref="B2"/>
+  <autoFilter ref="B1:G43"/>
+  <sortState ref="A2:U45">
+    <sortCondition ref="B6"/>
   </sortState>
-  <mergeCells count="4">
-    <mergeCell ref="G1:P1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="T21" r:id="rId1"/>
-    <hyperlink ref="T20" r:id="rId2"/>
-    <hyperlink ref="T29" r:id="rId3"/>
-    <hyperlink ref="T11" r:id="rId4"/>
-    <hyperlink ref="T12" r:id="rId5"/>
-    <hyperlink ref="T9" r:id="rId6"/>
-    <hyperlink ref="T5" r:id="rId7"/>
-    <hyperlink ref="T24" r:id="rId8"/>
-    <hyperlink ref="T23" r:id="rId9"/>
-    <hyperlink ref="T31" r:id="rId10"/>
-    <hyperlink ref="T22" r:id="rId11"/>
-    <hyperlink ref="T36" r:id="rId12"/>
+    <hyperlink ref="T23" r:id="rId1"/>
+    <hyperlink ref="T22" r:id="rId2"/>
+    <hyperlink ref="T6" r:id="rId3"/>
+    <hyperlink ref="T19" r:id="rId4"/>
+    <hyperlink ref="T20" r:id="rId5"/>
+    <hyperlink ref="T17" r:id="rId6"/>
+    <hyperlink ref="T16" r:id="rId7"/>
+    <hyperlink ref="T3" r:id="rId8"/>
+    <hyperlink ref="T2" r:id="rId9"/>
+    <hyperlink ref="T8" r:id="rId10"/>
+    <hyperlink ref="T24" r:id="rId11"/>
+    <hyperlink ref="T26" r:id="rId12"/>
+    <hyperlink ref="T32" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>